--- a/sofaplayer/Serie_A/Hellas Verona_stats.xlsx
+++ b/sofaplayer/Serie_A/Hellas Verona_stats.xlsx
@@ -1035,16 +1035,16 @@
         <v>1217613</v>
       </c>
       <c r="E2" t="n">
-        <v>6.6809523809524</v>
+        <v>6.5136363636364</v>
       </c>
       <c r="F2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G2" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H2" t="n">
-        <v>1573</v>
+        <v>1584</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
@@ -1056,7 +1056,7 @@
         <v>9.0463</v>
       </c>
       <c r="L2" t="n">
-        <v>224.71428571429</v>
+        <v>226.28571428571</v>
       </c>
       <c r="M2" t="n">
         <v>64</v>
@@ -1101,10 +1101,10 @@
         <v>1</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.81862516</v>
+        <v>0.81914338</v>
       </c>
       <c r="AB2" t="n">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="AC2" t="n">
         <v>1</v>
@@ -1113,19 +1113,19 @@
         <v>14</v>
       </c>
       <c r="AE2" t="n">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AF2" t="n">
-        <v>71.217712177122</v>
+        <v>71.167883211679</v>
       </c>
       <c r="AG2" t="n">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="AH2" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AI2" t="n">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AJ2" t="n">
         <v>75</v>
@@ -1197,10 +1197,10 @@
         <v>33.333333333333</v>
       </c>
       <c r="BG2" t="n">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="BH2" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BI2" t="n">
         <v>20</v>
@@ -1212,7 +1212,7 @@
         <v>4</v>
       </c>
       <c r="BL2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM2" t="n">
         <v>0</v>
@@ -1221,25 +1221,25 @@
         <v>1</v>
       </c>
       <c r="BO2" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BP2" t="n">
         <v>0</v>
       </c>
       <c r="BQ2" t="n">
-        <v>140.3</v>
+        <v>143.3</v>
       </c>
       <c r="BR2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BS2" t="n">
         <v>8</v>
       </c>
       <c r="BT2" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="BU2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BV2" t="n">
         <v>28</v>
@@ -1287,7 +1287,7 @@
         <v>22</v>
       </c>
       <c r="CK2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CL2" t="n">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="DF2" t="n">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="DG2" t="n">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="DH2" t="n">
         <v>0</v>
@@ -1747,16 +1747,16 @@
         <v>1022204</v>
       </c>
       <c r="E4" t="n">
-        <v>6.4782608695652</v>
+        <v>6.4916666666667</v>
       </c>
       <c r="F4" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G4" t="n">
         <v>7</v>
       </c>
       <c r="H4" t="n">
-        <v>793</v>
+        <v>821</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -1813,10 +1813,10 @@
         <v>1</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.607071</v>
+        <v>0.61611759</v>
       </c>
       <c r="AB4" t="n">
-        <v>365</v>
+        <v>379</v>
       </c>
       <c r="AC4" t="n">
         <v>1</v>
@@ -1825,22 +1825,22 @@
         <v>10</v>
       </c>
       <c r="AE4" t="n">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="AF4" t="n">
-        <v>72.63681592039801</v>
+        <v>73.20574162679399</v>
       </c>
       <c r="AG4" t="n">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="AH4" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="AI4" t="n">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="AJ4" t="n">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AK4" t="n">
         <v>1</v>
@@ -1858,19 +1858,19 @@
         <v>3</v>
       </c>
       <c r="AP4" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AQ4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AR4" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AS4" t="n">
         <v>3</v>
       </c>
       <c r="AT4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AU4" t="n">
         <v>3</v>
@@ -1891,28 +1891,28 @@
         <v>45.454545454545</v>
       </c>
       <c r="BA4" t="n">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="BB4" t="n">
-        <v>38.372093023256</v>
+        <v>39.325842696629</v>
       </c>
       <c r="BC4" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="BD4" t="n">
-        <v>42.528735632184</v>
+        <v>42.857142857143</v>
       </c>
       <c r="BE4" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="BF4" t="n">
-        <v>34.117647058824</v>
+        <v>35.632183908046</v>
       </c>
       <c r="BG4" t="n">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="BH4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BI4" t="n">
         <v>16</v>
@@ -1933,22 +1933,22 @@
         <v>0</v>
       </c>
       <c r="BO4" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BP4" t="n">
         <v>0</v>
       </c>
       <c r="BQ4" t="n">
-        <v>149</v>
+        <v>155.8</v>
       </c>
       <c r="BR4" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BS4" t="n">
         <v>1</v>
       </c>
       <c r="BT4" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BU4" t="n">
         <v>0</v>
@@ -1972,7 +1972,7 @@
         <v>5</v>
       </c>
       <c r="CB4" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="CC4" t="n">
         <v>4</v>
@@ -1996,7 +1996,7 @@
         <v>0</v>
       </c>
       <c r="CJ4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="CK4" t="n">
         <v>3</v>
@@ -2029,7 +2029,7 @@
         <v>6</v>
       </c>
       <c r="CU4" t="n">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="CV4" t="n">
         <v>56</v>
@@ -2047,10 +2047,10 @@
         <v>2</v>
       </c>
       <c r="DA4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="DB4" t="n">
-        <v>63.636363636364</v>
+        <v>61.538461538462</v>
       </c>
       <c r="DC4" t="n">
         <v>1</v>
@@ -2062,10 +2062,10 @@
         <v>0</v>
       </c>
       <c r="DF4" t="n">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="DG4" t="n">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="DH4" t="n">
         <v>0</v>
@@ -2460,13 +2460,13 @@
         <v>6.3</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H6" t="n">
-        <v>90</v>
+        <v>152</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.00341397</v>
+        <v>0.00434571</v>
       </c>
       <c r="AB6" t="n">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="AC6" t="n">
         <v>0</v>
@@ -2533,19 +2533,19 @@
         <v>1</v>
       </c>
       <c r="AE6" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AF6" t="n">
-        <v>69.230769230769</v>
+        <v>65</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="AH6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI6" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AJ6" t="n">
         <v>2</v>
@@ -2572,7 +2572,7 @@
         <v>0</v>
       </c>
       <c r="AR6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AS6" t="n">
         <v>0</v>
@@ -2599,89 +2599,89 @@
         <v>100</v>
       </c>
       <c r="BA6" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>32.142857142857</v>
+      </c>
+      <c r="BC6" t="n">
         <v>5</v>
       </c>
-      <c r="BB6" t="n">
-        <v>38.461538461538</v>
-      </c>
-      <c r="BC6" t="n">
-        <v>3</v>
-      </c>
       <c r="BD6" t="n">
-        <v>50</v>
+        <v>35.714285714286</v>
       </c>
       <c r="BE6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BF6" t="n">
         <v>28.571428571429</v>
       </c>
       <c r="BG6" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="BH6" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI6" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN6" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO6" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ6" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="BR6" t="n">
+        <v>2</v>
+      </c>
+      <c r="BS6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT6" t="n">
+        <v>7</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX6" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB6" t="n">
         <v>3</v>
       </c>
-      <c r="BI6" t="n">
-        <v>2</v>
-      </c>
-      <c r="BJ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN6" t="n">
-        <v>1</v>
-      </c>
-      <c r="BO6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ6" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="BR6" t="n">
-        <v>1</v>
-      </c>
-      <c r="BS6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT6" t="n">
-        <v>4</v>
-      </c>
-      <c r="BU6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB6" t="n">
-        <v>1</v>
-      </c>
       <c r="CC6" t="n">
         <v>0</v>
       </c>
@@ -2707,7 +2707,7 @@
         <v>0</v>
       </c>
       <c r="CK6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CL6" t="n">
         <v>0</v>
@@ -2737,10 +2737,10 @@
         <v>0</v>
       </c>
       <c r="CU6" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="CV6" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="CW6" t="n">
         <v>0</v>
@@ -2770,16 +2770,16 @@
         <v>0</v>
       </c>
       <c r="DF6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DG6" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="DH6" t="n">
         <v>0</v>
       </c>
       <c r="DI6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DJ6" t="n">
         <v>2658632</v>
@@ -3165,16 +3165,16 @@
         <v>1103488</v>
       </c>
       <c r="E8" t="n">
-        <v>6.7666666666667</v>
+        <v>6.74375</v>
       </c>
       <c r="F8" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H8" t="n">
-        <v>1105</v>
+        <v>1125</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -3186,7 +3186,7 @@
         <v>1.5069</v>
       </c>
       <c r="L8" t="n">
-        <v>552.5</v>
+        <v>562.5</v>
       </c>
       <c r="M8" t="n">
         <v>10</v>
@@ -3231,10 +3231,10 @@
         <v>0</v>
       </c>
       <c r="AA8" t="n">
-        <v>1.7660255</v>
+        <v>1.76611273</v>
       </c>
       <c r="AB8" t="n">
-        <v>597</v>
+        <v>606</v>
       </c>
       <c r="AC8" t="n">
         <v>1</v>
@@ -3243,16 +3243,16 @@
         <v>15</v>
       </c>
       <c r="AE8" t="n">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AF8" t="n">
-        <v>75.165562913907</v>
+        <v>74.26710097719899</v>
       </c>
       <c r="AG8" t="n">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="AH8" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AI8" t="n">
         <v>165</v>
@@ -3270,7 +3270,7 @@
         <v>9</v>
       </c>
       <c r="AN8" t="n">
-        <v>26.470588235294</v>
+        <v>25.714285714286</v>
       </c>
       <c r="AO8" t="n">
         <v>12</v>
@@ -3282,7 +3282,7 @@
         <v>4</v>
       </c>
       <c r="AR8" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AS8" t="n">
         <v>6</v>
@@ -3327,7 +3327,7 @@
         <v>23.809523809524</v>
       </c>
       <c r="BG8" t="n">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="BH8" t="n">
         <v>13</v>
@@ -3351,22 +3351,22 @@
         <v>2</v>
       </c>
       <c r="BO8" t="n">
+        <v>17</v>
+      </c>
+      <c r="BP8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ8" t="n">
+        <v>107.9</v>
+      </c>
+      <c r="BR8" t="n">
         <v>16</v>
-      </c>
-      <c r="BP8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ8" t="n">
-        <v>101.5</v>
-      </c>
-      <c r="BR8" t="n">
-        <v>15</v>
       </c>
       <c r="BS8" t="n">
         <v>2</v>
       </c>
       <c r="BT8" t="n">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="BU8" t="n">
         <v>0</v>
@@ -3417,7 +3417,7 @@
         <v>14</v>
       </c>
       <c r="CK8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CL8" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>42</v>
       </c>
       <c r="CT8" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="CU8" t="n">
         <v>65</v>
@@ -3480,10 +3480,10 @@
         <v>0</v>
       </c>
       <c r="DF8" t="n">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="DG8" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="DH8" t="n">
         <v>0</v>
@@ -3521,16 +3521,16 @@
         <v>868958</v>
       </c>
       <c r="E9" t="n">
-        <v>6.5916666666667</v>
+        <v>6.6076923076923</v>
       </c>
       <c r="F9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H9" t="n">
-        <v>589</v>
+        <v>679</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -3539,13 +3539,13 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1507</v>
+        <v>0.1892</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N9" t="n">
         <v>1</v>
@@ -3587,10 +3587,10 @@
         <v>1</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.39799724</v>
+        <v>0.41119944</v>
       </c>
       <c r="AB9" t="n">
-        <v>389</v>
+        <v>436</v>
       </c>
       <c r="AC9" t="n">
         <v>0</v>
@@ -3599,28 +3599,28 @@
         <v>5</v>
       </c>
       <c r="AE9" t="n">
-        <v>262</v>
+        <v>284</v>
       </c>
       <c r="AF9" t="n">
-        <v>83.43949044586</v>
+        <v>81.60919540229899</v>
       </c>
       <c r="AG9" t="n">
-        <v>314</v>
+        <v>348</v>
       </c>
       <c r="AH9" t="n">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="AI9" t="n">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="AJ9" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AK9" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AL9" t="n">
-        <v>50</v>
+        <v>47.619047619048</v>
       </c>
       <c r="AM9" t="n">
         <v>1</v>
@@ -3638,16 +3638,16 @@
         <v>1</v>
       </c>
       <c r="AR9" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AS9" t="n">
         <v>10</v>
       </c>
       <c r="AT9" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="AU9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV9" t="n">
         <v>0</v>
@@ -3665,28 +3665,28 @@
         <v>0</v>
       </c>
       <c r="BA9" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="BB9" t="n">
-        <v>36.507936507937</v>
+        <v>36.764705882353</v>
       </c>
       <c r="BC9" t="n">
         <v>13</v>
       </c>
       <c r="BD9" t="n">
-        <v>33.333333333333</v>
+        <v>31.707317073171</v>
       </c>
       <c r="BE9" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BF9" t="n">
-        <v>41.666666666667</v>
+        <v>44.444444444444</v>
       </c>
       <c r="BG9" t="n">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="BH9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BI9" t="n">
         <v>2</v>
@@ -3707,22 +3707,22 @@
         <v>1</v>
       </c>
       <c r="BO9" t="n">
+        <v>15</v>
+      </c>
+      <c r="BP9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ9" t="n">
+        <v>85.90000000000001</v>
+      </c>
+      <c r="BR9" t="n">
         <v>13</v>
       </c>
-      <c r="BP9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ9" t="n">
-        <v>79.09999999999999</v>
-      </c>
-      <c r="BR9" t="n">
-        <v>12</v>
-      </c>
       <c r="BS9" t="n">
         <v>1</v>
       </c>
       <c r="BT9" t="n">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="BU9" t="n">
         <v>0</v>
@@ -3743,16 +3743,16 @@
         <v>0</v>
       </c>
       <c r="CA9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CB9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CC9" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="CD9" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="CE9" t="n">
         <v>0</v>
@@ -3770,10 +3770,10 @@
         <v>0</v>
       </c>
       <c r="CJ9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="CK9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CL9" t="n">
         <v>0</v>
@@ -3803,10 +3803,10 @@
         <v>2</v>
       </c>
       <c r="CU9" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="CV9" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="CW9" t="n">
         <v>0</v>
@@ -3818,7 +3818,7 @@
         <v>0</v>
       </c>
       <c r="CZ9" t="n">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="DA9" t="n">
         <v>4</v>
@@ -3836,16 +3836,16 @@
         <v>0</v>
       </c>
       <c r="DF9" t="n">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="DG9" t="n">
-        <v>173</v>
+        <v>195</v>
       </c>
       <c r="DH9" t="n">
         <v>0</v>
       </c>
       <c r="DI9" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="DJ9" t="n">
         <v>2199379</v>
@@ -3877,16 +3877,16 @@
         <v>897594</v>
       </c>
       <c r="E10" t="n">
-        <v>6.6263157894737</v>
+        <v>6.64</v>
       </c>
       <c r="F10" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G10" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H10" t="n">
-        <v>1449</v>
+        <v>1539</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -3943,64 +3943,64 @@
         <v>0</v>
       </c>
       <c r="AA10" t="n">
-        <v>1.82377276</v>
+        <v>1.92543076</v>
       </c>
       <c r="AB10" t="n">
-        <v>707</v>
+        <v>739</v>
       </c>
       <c r="AC10" t="n">
         <v>4</v>
       </c>
       <c r="AD10" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AE10" t="n">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="AF10" t="n">
-        <v>75.91240875912401</v>
+        <v>75.943396226415</v>
       </c>
       <c r="AG10" t="n">
-        <v>411</v>
+        <v>424</v>
       </c>
       <c r="AH10" t="n">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AI10" t="n">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AJ10" t="n">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AK10" t="n">
         <v>12</v>
       </c>
       <c r="AL10" t="n">
-        <v>28.571428571429</v>
+        <v>27.906976744186</v>
       </c>
       <c r="AM10" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AN10" t="n">
-        <v>20.3125</v>
+        <v>22.727272727273</v>
       </c>
       <c r="AO10" t="n">
         <v>6</v>
       </c>
       <c r="AP10" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AQ10" t="n">
         <v>5</v>
       </c>
       <c r="AR10" t="n">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="AS10" t="n">
         <v>6</v>
       </c>
       <c r="AT10" t="n">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="AU10" t="n">
         <v>2</v>
@@ -4018,19 +4018,19 @@
         <v>4</v>
       </c>
       <c r="AZ10" t="n">
-        <v>28.571428571429</v>
+        <v>26.666666666667</v>
       </c>
       <c r="BA10" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="BB10" t="n">
-        <v>50</v>
+        <v>50.617283950617</v>
       </c>
       <c r="BC10" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="BD10" t="n">
-        <v>58.928571428571</v>
+        <v>59.322033898305</v>
       </c>
       <c r="BE10" t="n">
         <v>6</v>
@@ -4039,7 +4039,7 @@
         <v>27.272727272727</v>
       </c>
       <c r="BG10" t="n">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="BH10" t="n">
         <v>7</v>
@@ -4063,22 +4063,22 @@
         <v>2</v>
       </c>
       <c r="BO10" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="BP10" t="n">
         <v>0</v>
       </c>
       <c r="BQ10" t="n">
-        <v>125.9</v>
+        <v>132.8</v>
       </c>
       <c r="BR10" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BS10" t="n">
         <v>0</v>
       </c>
       <c r="BT10" t="n">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="BU10" t="n">
         <v>0</v>
@@ -4126,10 +4126,10 @@
         <v>0</v>
       </c>
       <c r="CJ10" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="CK10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CL10" t="n">
         <v>0</v>
@@ -4150,16 +4150,16 @@
         <v>0</v>
       </c>
       <c r="CR10" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="CS10" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="CT10" t="n">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="CU10" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="CV10" t="n">
         <v>16</v>
@@ -4174,13 +4174,13 @@
         <v>0</v>
       </c>
       <c r="CZ10" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="DA10" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="DB10" t="n">
-        <v>54.545454545455</v>
+        <v>58.333333333333</v>
       </c>
       <c r="DC10" t="n">
         <v>0</v>
@@ -4192,10 +4192,10 @@
         <v>0</v>
       </c>
       <c r="DF10" t="n">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="DG10" t="n">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="DH10" t="n">
         <v>0</v>
@@ -4233,16 +4233,16 @@
         <v>972523</v>
       </c>
       <c r="E11" t="n">
-        <v>6.6294117647059</v>
+        <v>6.6222222222222</v>
       </c>
       <c r="F11" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H11" t="n">
-        <v>806</v>
+        <v>885</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -4251,13 +4251,13 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0.1283</v>
+        <v>0.1578</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N11" t="n">
         <v>1</v>
@@ -4299,10 +4299,10 @@
         <v>1</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.69625409</v>
+        <v>0.72810739</v>
       </c>
       <c r="AB11" t="n">
-        <v>445</v>
+        <v>469</v>
       </c>
       <c r="AC11" t="n">
         <v>0</v>
@@ -4311,28 +4311,28 @@
         <v>8</v>
       </c>
       <c r="AE11" t="n">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="AF11" t="n">
-        <v>81.14478114478101</v>
+        <v>80.582524271845</v>
       </c>
       <c r="AG11" t="n">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="AH11" t="n">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="AI11" t="n">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="AJ11" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AL11" t="n">
-        <v>33.333333333333</v>
+        <v>36.842105263158</v>
       </c>
       <c r="AM11" t="n">
         <v>5</v>
@@ -4344,7 +4344,7 @@
         <v>11</v>
       </c>
       <c r="AP11" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AQ11" t="n">
         <v>2</v>
@@ -4356,7 +4356,7 @@
         <v>9</v>
       </c>
       <c r="AT11" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AU11" t="n">
         <v>1</v>
@@ -4374,34 +4374,34 @@
         <v>4</v>
       </c>
       <c r="AZ11" t="n">
-        <v>80</v>
+        <v>66.666666666667</v>
       </c>
       <c r="BA11" t="n">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="BB11" t="n">
-        <v>48.648648648649</v>
+        <v>47.899159663866</v>
       </c>
       <c r="BC11" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="BD11" t="n">
-        <v>57.142857142857</v>
+        <v>56.716417910448</v>
       </c>
       <c r="BE11" t="n">
+        <v>19</v>
+      </c>
+      <c r="BF11" t="n">
+        <v>36.538461538462</v>
+      </c>
+      <c r="BG11" t="n">
+        <v>88</v>
+      </c>
+      <c r="BH11" t="n">
         <v>18</v>
       </c>
-      <c r="BF11" t="n">
-        <v>37.5</v>
-      </c>
-      <c r="BG11" t="n">
-        <v>81</v>
-      </c>
-      <c r="BH11" t="n">
-        <v>17</v>
-      </c>
       <c r="BI11" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BJ11" t="n">
         <v>2</v>
@@ -4419,28 +4419,28 @@
         <v>0</v>
       </c>
       <c r="BO11" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BP11" t="n">
         <v>0</v>
       </c>
       <c r="BQ11" t="n">
-        <v>112.7</v>
+        <v>119.2</v>
       </c>
       <c r="BR11" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BS11" t="n">
         <v>1</v>
       </c>
       <c r="BT11" t="n">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="BU11" t="n">
         <v>0</v>
       </c>
       <c r="BV11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BW11" t="n">
         <v>0</v>
@@ -4455,7 +4455,7 @@
         <v>2</v>
       </c>
       <c r="CA11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CB11" t="n">
         <v>4</v>
@@ -4485,7 +4485,7 @@
         <v>16</v>
       </c>
       <c r="CK11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CL11" t="n">
         <v>0</v>
@@ -4509,16 +4509,16 @@
         <v>8</v>
       </c>
       <c r="CS11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CT11" t="n">
         <v>10</v>
       </c>
       <c r="CU11" t="n">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="CV11" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="CW11" t="n">
         <v>0</v>
@@ -4530,13 +4530,13 @@
         <v>0</v>
       </c>
       <c r="CZ11" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="DA11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="DB11" t="n">
-        <v>63.157894736842</v>
+        <v>65</v>
       </c>
       <c r="DC11" t="n">
         <v>0</v>
@@ -4548,16 +4548,16 @@
         <v>0</v>
       </c>
       <c r="DF11" t="n">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="DG11" t="n">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="DH11" t="n">
         <v>0</v>
       </c>
       <c r="DI11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="DJ11" t="n">
         <v>2175710</v>
@@ -4589,52 +4589,52 @@
         <v>915812</v>
       </c>
       <c r="E12" t="n">
-        <v>6.5</v>
+        <v>6.5230769230769</v>
       </c>
       <c r="F12" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H12" t="n">
-        <v>296</v>
+        <v>375</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" t="n">
-        <v>0.2401</v>
+        <v>1.0285</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>375</v>
       </c>
       <c r="M12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>16.666666666667</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -4646,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -4655,40 +4655,40 @@
         <v>0</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.30148659</v>
+        <v>0.31157329</v>
       </c>
       <c r="AB12" t="n">
-        <v>209</v>
+        <v>251</v>
       </c>
       <c r="AC12" t="n">
         <v>0</v>
       </c>
       <c r="AD12" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE12" t="n">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="AF12" t="n">
-        <v>80</v>
+        <v>78.343949044586</v>
       </c>
       <c r="AG12" t="n">
-        <v>135</v>
+        <v>157</v>
       </c>
       <c r="AH12" t="n">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="AI12" t="n">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="AJ12" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="AK12" t="n">
         <v>1</v>
       </c>
       <c r="AL12" t="n">
-        <v>11.111111111111</v>
+        <v>9.090909090909101</v>
       </c>
       <c r="AM12" t="n">
         <v>3</v>
@@ -4700,19 +4700,19 @@
         <v>0</v>
       </c>
       <c r="AP12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AQ12" t="n">
         <v>7</v>
       </c>
       <c r="AR12" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AS12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AU12" t="n">
         <v>4</v>
@@ -4727,22 +4727,22 @@
         <v>0</v>
       </c>
       <c r="AY12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AZ12" t="n">
-        <v>42.857142857143</v>
+        <v>41.666666666667</v>
       </c>
       <c r="BA12" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="BB12" t="n">
-        <v>39.473684210526</v>
+        <v>37.5</v>
       </c>
       <c r="BC12" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="BD12" t="n">
-        <v>45.161290322581</v>
+        <v>41.463414634146</v>
       </c>
       <c r="BE12" t="n">
         <v>1</v>
@@ -4751,10 +4751,10 @@
         <v>14.285714285714</v>
       </c>
       <c r="BG12" t="n">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="BH12" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BI12" t="n">
         <v>1</v>
@@ -4775,22 +4775,22 @@
         <v>0</v>
       </c>
       <c r="BO12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BP12" t="n">
         <v>0</v>
       </c>
       <c r="BQ12" t="n">
-        <v>78</v>
+        <v>84.8</v>
       </c>
       <c r="BR12" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BS12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT12" t="n">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="BU12" t="n">
         <v>0</v>
@@ -4799,7 +4799,7 @@
         <v>0</v>
       </c>
       <c r="BW12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX12" t="n">
         <v>0</v>
@@ -4808,16 +4808,16 @@
         <v>0</v>
       </c>
       <c r="BZ12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CA12" t="n">
         <v>3</v>
       </c>
       <c r="CB12" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="CC12" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="CD12" t="n">
         <v>1</v>
@@ -4841,7 +4841,7 @@
         <v>7</v>
       </c>
       <c r="CK12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CL12" t="n">
         <v>0</v>
@@ -4862,16 +4862,16 @@
         <v>0</v>
       </c>
       <c r="CR12" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="CS12" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="CT12" t="n">
         <v>11</v>
       </c>
       <c r="CU12" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="CV12" t="n">
         <v>6</v>
@@ -4886,13 +4886,13 @@
         <v>0</v>
       </c>
       <c r="CZ12" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="DA12" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="DB12" t="n">
-        <v>60</v>
+        <v>63.636363636364</v>
       </c>
       <c r="DC12" t="n">
         <v>0</v>
@@ -4904,16 +4904,16 @@
         <v>0</v>
       </c>
       <c r="DF12" t="n">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="DG12" t="n">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="DH12" t="n">
         <v>0</v>
       </c>
       <c r="DI12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DJ12" t="n">
         <v>2175724</v>
@@ -5301,16 +5301,16 @@
         <v>800408</v>
       </c>
       <c r="E14" t="n">
-        <v>6.7421052631579</v>
+        <v>6.725</v>
       </c>
       <c r="F14" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G14" t="n">
         <v>12</v>
       </c>
       <c r="H14" t="n">
-        <v>1105</v>
+        <v>1116</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -5322,7 +5322,7 @@
         <v>2.1485</v>
       </c>
       <c r="L14" t="n">
-        <v>552.5</v>
+        <v>558</v>
       </c>
       <c r="M14" t="n">
         <v>19</v>
@@ -5370,7 +5370,7 @@
         <v>0.82911292</v>
       </c>
       <c r="AB14" t="n">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="AC14" t="n">
         <v>2</v>
@@ -5382,10 +5382,10 @@
         <v>284</v>
       </c>
       <c r="AF14" t="n">
-        <v>72.081218274112</v>
+        <v>71.898734177215</v>
       </c>
       <c r="AG14" t="n">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AH14" t="n">
         <v>108</v>
@@ -5400,7 +5400,7 @@
         <v>25</v>
       </c>
       <c r="AL14" t="n">
-        <v>45.454545454545</v>
+        <v>44.642857142857</v>
       </c>
       <c r="AM14" t="n">
         <v>1</v>
@@ -5463,7 +5463,7 @@
         <v>36.363636363636</v>
       </c>
       <c r="BG14" t="n">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="BH14" t="n">
         <v>19</v>
@@ -5487,22 +5487,22 @@
         <v>1</v>
       </c>
       <c r="BO14" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BP14" t="n">
         <v>0</v>
       </c>
       <c r="BQ14" t="n">
-        <v>128.1</v>
+        <v>134.5</v>
       </c>
       <c r="BR14" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BS14" t="n">
         <v>2</v>
       </c>
       <c r="BT14" t="n">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="BU14" t="n">
         <v>0</v>
@@ -5550,7 +5550,7 @@
         <v>0</v>
       </c>
       <c r="CJ14" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="CK14" t="n">
         <v>2</v>
@@ -5598,7 +5598,7 @@
         <v>0</v>
       </c>
       <c r="CZ14" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="DA14" t="n">
         <v>19</v>
@@ -5619,7 +5619,7 @@
         <v>124</v>
       </c>
       <c r="DG14" t="n">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="DH14" t="n">
         <v>0</v>
@@ -6369,16 +6369,16 @@
         <v>164511</v>
       </c>
       <c r="E17" t="n">
-        <v>6.5555555555556</v>
+        <v>6.66</v>
       </c>
       <c r="F17" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G17" t="n">
         <v>6</v>
       </c>
       <c r="H17" t="n">
-        <v>494</v>
+        <v>564</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -6435,34 +6435,34 @@
         <v>0</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.07772444000000001</v>
+        <v>0.08294637000000001</v>
       </c>
       <c r="AB17" t="n">
-        <v>224</v>
+        <v>267</v>
       </c>
       <c r="AC17" t="n">
         <v>0</v>
       </c>
       <c r="AD17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AE17" t="n">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="AF17" t="n">
-        <v>72.173913043478</v>
+        <v>74.015748031496</v>
       </c>
       <c r="AG17" t="n">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="AH17" t="n">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="AI17" t="n">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="AJ17" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AK17" t="n">
         <v>4</v>
@@ -6477,22 +6477,22 @@
         <v>0</v>
       </c>
       <c r="AO17" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AP17" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="AQ17" t="n">
         <v>1</v>
       </c>
       <c r="AR17" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="AS17" t="n">
         <v>6</v>
       </c>
       <c r="AT17" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AU17" t="n">
         <v>2</v>
@@ -6507,22 +6507,22 @@
         <v>0</v>
       </c>
       <c r="AY17" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AZ17" t="n">
-        <v>41.666666666667</v>
+        <v>58.823529411765</v>
       </c>
       <c r="BA17" t="n">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="BB17" t="n">
-        <v>44.444444444444</v>
+        <v>49.038461538462</v>
       </c>
       <c r="BC17" t="n">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="BD17" t="n">
-        <v>41.666666666667</v>
+        <v>48.648648648649</v>
       </c>
       <c r="BE17" t="n">
         <v>15</v>
@@ -6531,19 +6531,19 @@
         <v>50</v>
       </c>
       <c r="BG17" t="n">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="BH17" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="BI17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BJ17" t="n">
         <v>0</v>
       </c>
       <c r="BK17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BL17" t="n">
         <v>0</v>
@@ -6555,22 +6555,22 @@
         <v>1</v>
       </c>
       <c r="BO17" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BP17" t="n">
         <v>0</v>
       </c>
       <c r="BQ17" t="n">
-        <v>59</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="BR17" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BS17" t="n">
         <v>0</v>
       </c>
       <c r="BT17" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="BU17" t="n">
         <v>0</v>
@@ -6594,7 +6594,7 @@
         <v>2</v>
       </c>
       <c r="CB17" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CC17" t="n">
         <v>11</v>
@@ -6618,7 +6618,7 @@
         <v>0</v>
       </c>
       <c r="CJ17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CK17" t="n">
         <v>2</v>
@@ -6642,16 +6642,16 @@
         <v>0</v>
       </c>
       <c r="CR17" t="n">
+        <v>5</v>
+      </c>
+      <c r="CS17" t="n">
+        <v>17</v>
+      </c>
+      <c r="CT17" t="n">
         <v>4</v>
       </c>
-      <c r="CS17" t="n">
-        <v>12</v>
-      </c>
-      <c r="CT17" t="n">
-        <v>3</v>
-      </c>
       <c r="CU17" t="n">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="CV17" t="n">
         <v>15</v>
@@ -6669,10 +6669,10 @@
         <v>7</v>
       </c>
       <c r="DA17" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="DB17" t="n">
-        <v>63.157894736842</v>
+        <v>70.833333333333</v>
       </c>
       <c r="DC17" t="n">
         <v>0</v>
@@ -6684,10 +6684,10 @@
         <v>0</v>
       </c>
       <c r="DF17" t="n">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="DG17" t="n">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="DH17" t="n">
         <v>0</v>
@@ -6725,16 +6725,16 @@
         <v>846148</v>
       </c>
       <c r="E18" t="n">
-        <v>6.6708333333333</v>
+        <v>6.656</v>
       </c>
       <c r="F18" t="n">
+        <v>25</v>
+      </c>
+      <c r="G18" t="n">
         <v>24</v>
       </c>
-      <c r="G18" t="n">
-        <v>23</v>
-      </c>
       <c r="H18" t="n">
-        <v>2056</v>
+        <v>2146</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -6791,10 +6791,10 @@
         <v>0</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.19310717</v>
+        <v>0.19374114</v>
       </c>
       <c r="AB18" t="n">
-        <v>1104</v>
+        <v>1127</v>
       </c>
       <c r="AC18" t="n">
         <v>0</v>
@@ -6803,28 +6803,28 @@
         <v>1</v>
       </c>
       <c r="AE18" t="n">
-        <v>672</v>
+        <v>684</v>
       </c>
       <c r="AF18" t="n">
-        <v>87.046632124352</v>
+        <v>87.133757961783</v>
       </c>
       <c r="AG18" t="n">
-        <v>772</v>
+        <v>785</v>
       </c>
       <c r="AH18" t="n">
-        <v>479</v>
+        <v>490</v>
       </c>
       <c r="AI18" t="n">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AJ18" t="n">
         <v>41</v>
       </c>
       <c r="AK18" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AL18" t="n">
-        <v>32.835820895522</v>
+        <v>33.823529411765</v>
       </c>
       <c r="AM18" t="n">
         <v>0</v>
@@ -6833,7 +6833,7 @@
         <v>0</v>
       </c>
       <c r="AO18" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AP18" t="n">
         <v>33</v>
@@ -6848,7 +6848,7 @@
         <v>13</v>
       </c>
       <c r="AT18" t="n">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="AU18" t="n">
         <v>0</v>
@@ -6869,10 +6869,10 @@
         <v>100</v>
       </c>
       <c r="BA18" t="n">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="BB18" t="n">
-        <v>60.679611650485</v>
+        <v>60.47619047619</v>
       </c>
       <c r="BC18" t="n">
         <v>44</v>
@@ -6881,13 +6881,13 @@
         <v>53.012048192771</v>
       </c>
       <c r="BE18" t="n">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="BF18" t="n">
-        <v>65.853658536585</v>
+        <v>65.354330708661</v>
       </c>
       <c r="BG18" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="BH18" t="n">
         <v>28</v>
@@ -6911,22 +6911,22 @@
         <v>5</v>
       </c>
       <c r="BO18" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="BP18" t="n">
         <v>0</v>
       </c>
       <c r="BQ18" t="n">
-        <v>160.1</v>
+        <v>166.4</v>
       </c>
       <c r="BR18" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BS18" t="n">
         <v>0</v>
       </c>
       <c r="BT18" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="BU18" t="n">
         <v>0</v>
@@ -6974,10 +6974,10 @@
         <v>0</v>
       </c>
       <c r="CJ18" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="CK18" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CL18" t="n">
         <v>0</v>
@@ -7007,10 +7007,10 @@
         <v>1</v>
       </c>
       <c r="CU18" t="n">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="CV18" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="CW18" t="n">
         <v>0</v>
@@ -7022,7 +7022,7 @@
         <v>0</v>
       </c>
       <c r="CZ18" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="DA18" t="n">
         <v>19</v>
@@ -7040,16 +7040,16 @@
         <v>0</v>
       </c>
       <c r="DF18" t="n">
-        <v>503</v>
+        <v>514</v>
       </c>
       <c r="DG18" t="n">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="DH18" t="n">
         <v>0</v>
       </c>
       <c r="DI18" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="DJ18" t="n">
         <v>2175719</v>
@@ -7437,16 +7437,16 @@
         <v>976025</v>
       </c>
       <c r="E20" t="n">
-        <v>6.7285714285714</v>
+        <v>6.7533333333333</v>
       </c>
       <c r="F20" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H20" t="n">
-        <v>1037</v>
+        <v>1127</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -7503,10 +7503,10 @@
         <v>0</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.2679704</v>
+        <v>0.3096586</v>
       </c>
       <c r="AB20" t="n">
-        <v>610</v>
+        <v>636</v>
       </c>
       <c r="AC20" t="n">
         <v>0</v>
@@ -7515,28 +7515,28 @@
         <v>1</v>
       </c>
       <c r="AE20" t="n">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="AF20" t="n">
-        <v>82.28155339805799</v>
+        <v>81.924882629108</v>
       </c>
       <c r="AG20" t="n">
-        <v>412</v>
+        <v>426</v>
       </c>
       <c r="AH20" t="n">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="AI20" t="n">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="AJ20" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AK20" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AL20" t="n">
-        <v>38.297872340426</v>
+        <v>38.775510204082</v>
       </c>
       <c r="AM20" t="n">
         <v>0</v>
@@ -7548,7 +7548,7 @@
         <v>28</v>
       </c>
       <c r="AP20" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AQ20" t="n">
         <v>1</v>
@@ -7560,7 +7560,7 @@
         <v>2</v>
       </c>
       <c r="AT20" t="n">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="AU20" t="n">
         <v>1</v>
@@ -7578,34 +7578,34 @@
         <v>1</v>
       </c>
       <c r="AZ20" t="n">
-        <v>50</v>
+        <v>33.333333333333</v>
       </c>
       <c r="BA20" t="n">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="BB20" t="n">
-        <v>67.44186046511599</v>
+        <v>67.39130434782599</v>
       </c>
       <c r="BC20" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="BD20" t="n">
-        <v>53.333333333333</v>
+        <v>53.061224489796</v>
       </c>
       <c r="BE20" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="BF20" t="n">
-        <v>82.92682926829301</v>
+        <v>83.720930232558</v>
       </c>
       <c r="BG20" t="n">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="BH20" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BI20" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BJ20" t="n">
         <v>0</v>
@@ -7623,22 +7623,22 @@
         <v>1</v>
       </c>
       <c r="BO20" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="BP20" t="n">
         <v>0</v>
       </c>
       <c r="BQ20" t="n">
-        <v>94.2</v>
+        <v>101.3</v>
       </c>
       <c r="BR20" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BS20" t="n">
         <v>0</v>
       </c>
       <c r="BT20" t="n">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="BU20" t="n">
         <v>0</v>
@@ -7665,10 +7665,10 @@
         <v>1</v>
       </c>
       <c r="CC20" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="CD20" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="CE20" t="n">
         <v>0</v>
@@ -7686,40 +7686,40 @@
         <v>0</v>
       </c>
       <c r="CJ20" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="CK20" t="n">
+        <v>4</v>
+      </c>
+      <c r="CL20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR20" t="n">
+        <v>1</v>
+      </c>
+      <c r="CS20" t="n">
         <v>3</v>
       </c>
-      <c r="CL20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR20" t="n">
-        <v>1</v>
-      </c>
-      <c r="CS20" t="n">
-        <v>2</v>
-      </c>
       <c r="CT20" t="n">
         <v>1</v>
       </c>
       <c r="CU20" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="CV20" t="n">
         <v>7</v>
@@ -7734,13 +7734,13 @@
         <v>0</v>
       </c>
       <c r="CZ20" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="DA20" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="DB20" t="n">
-        <v>50</v>
+        <v>53.846153846154</v>
       </c>
       <c r="DC20" t="n">
         <v>0</v>
@@ -7752,16 +7752,16 @@
         <v>0</v>
       </c>
       <c r="DF20" t="n">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="DG20" t="n">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="DH20" t="n">
         <v>0</v>
       </c>
       <c r="DI20" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="DJ20" t="n">
         <v>2199394</v>
@@ -8147,16 +8147,16 @@
         <v>1133236</v>
       </c>
       <c r="E22" t="n">
-        <v>6.8</v>
+        <v>6.75</v>
       </c>
       <c r="F22" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G22" t="n">
         <v>4</v>
       </c>
       <c r="H22" t="n">
-        <v>405</v>
+        <v>416</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -8165,13 +8165,13 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>0.08359999999999999</v>
+        <v>0.1357</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N22" t="n">
         <v>1</v>
@@ -8213,10 +8213,10 @@
         <v>0</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.03067975</v>
+        <v>0.03083417</v>
       </c>
       <c r="AB22" t="n">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="AC22" t="n">
         <v>0</v>
@@ -8225,19 +8225,19 @@
         <v>0</v>
       </c>
       <c r="AE22" t="n">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AF22" t="n">
-        <v>78.636363636364</v>
+        <v>77.678571428571</v>
       </c>
       <c r="AG22" t="n">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="AH22" t="n">
         <v>105</v>
       </c>
       <c r="AI22" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AJ22" t="n">
         <v>23</v>
@@ -8246,7 +8246,7 @@
         <v>9</v>
       </c>
       <c r="AL22" t="n">
-        <v>27.272727272727</v>
+        <v>25.714285714286</v>
       </c>
       <c r="AM22" t="n">
         <v>0</v>
@@ -8258,19 +8258,19 @@
         <v>3</v>
       </c>
       <c r="AP22" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AQ22" t="n">
         <v>0</v>
       </c>
       <c r="AR22" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AS22" t="n">
         <v>1</v>
       </c>
       <c r="AT22" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AU22" t="n">
         <v>1</v>
@@ -8291,16 +8291,16 @@
         <v>0</v>
       </c>
       <c r="BA22" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="BB22" t="n">
-        <v>83.333333333333</v>
+        <v>84.210526315789</v>
       </c>
       <c r="BC22" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BD22" t="n">
-        <v>82.35294117647101</v>
+        <v>84.210526315789</v>
       </c>
       <c r="BE22" t="n">
         <v>16</v>
@@ -8309,7 +8309,7 @@
         <v>84.210526315789</v>
       </c>
       <c r="BG22" t="n">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="BH22" t="n">
         <v>2</v>
@@ -8333,28 +8333,28 @@
         <v>2</v>
       </c>
       <c r="BO22" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BP22" t="n">
         <v>0</v>
       </c>
       <c r="BQ22" t="n">
-        <v>34</v>
+        <v>40.5</v>
       </c>
       <c r="BR22" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BS22" t="n">
         <v>0</v>
       </c>
       <c r="BT22" t="n">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="BU22" t="n">
         <v>0</v>
       </c>
       <c r="BV22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW22" t="n">
         <v>0</v>
@@ -8366,7 +8366,7 @@
         <v>0</v>
       </c>
       <c r="BZ22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CA22" t="n">
         <v>1</v>
@@ -8396,7 +8396,7 @@
         <v>0</v>
       </c>
       <c r="CJ22" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CK22" t="n">
         <v>0</v>
@@ -8444,13 +8444,13 @@
         <v>0</v>
       </c>
       <c r="CZ22" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="DA22" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="DB22" t="n">
-        <v>55.555555555556</v>
+        <v>54.545454545455</v>
       </c>
       <c r="DC22" t="n">
         <v>0</v>
@@ -8465,13 +8465,13 @@
         <v>117</v>
       </c>
       <c r="DG22" t="n">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="DH22" t="n">
         <v>0</v>
       </c>
       <c r="DI22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="DJ22" t="n">
         <v>2593740</v>
@@ -8852,125 +8852,123 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Fallou Cham</t>
+          <t>Andrias Edmundsson</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>1945133</v>
+        <v>906963</v>
       </c>
       <c r="E24" t="n">
-        <v>6.5833333333333</v>
+        <v>7.05</v>
       </c>
       <c r="F24" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G24" t="n">
+        <v>2</v>
+      </c>
+      <c r="H24" t="n">
+        <v>180</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0</v>
+      </c>
+      <c r="X24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>0.0174588</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>133</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>67</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>78.82352941176499</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>85</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>42</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>25</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>8</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>8</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO24" t="n">
         <v>3</v>
       </c>
-      <c r="H24" t="n">
-        <v>235</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0.3506</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
+      <c r="AP24" t="n">
         <v>5</v>
-      </c>
-      <c r="N24" t="n">
-        <v>2</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>0</v>
-      </c>
-      <c r="R24" t="n">
-        <v>0</v>
-      </c>
-      <c r="S24" t="n">
-        <v>0</v>
-      </c>
-      <c r="T24" t="n">
-        <v>0</v>
-      </c>
-      <c r="U24" t="n">
-        <v>0</v>
-      </c>
-      <c r="V24" t="n">
-        <v>0</v>
-      </c>
-      <c r="W24" t="n">
-        <v>0</v>
-      </c>
-      <c r="X24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>0.09911876</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>144</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>4</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>32</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>60.377358490566</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>53</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>16</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>16</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>3</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>60</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN24" t="n">
-        <v>10</v>
-      </c>
-      <c r="AO24" t="n">
-        <v>4</v>
-      </c>
-      <c r="AP24" t="n">
-        <v>14</v>
       </c>
       <c r="AQ24" t="n">
         <v>0</v>
@@ -8979,190 +8977,190 @@
         <v>6</v>
       </c>
       <c r="AS24" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>18</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA24" t="n">
+        <v>15</v>
+      </c>
+      <c r="BB24" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="BC24" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD24" t="n">
+        <v>70</v>
+      </c>
+      <c r="BE24" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF24" t="n">
+        <v>57.142857142857</v>
+      </c>
+      <c r="BG24" t="n">
+        <v>25</v>
+      </c>
+      <c r="BH24" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI24" t="n">
         <v>3</v>
       </c>
-      <c r="AT24" t="n">
+      <c r="BJ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN24" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO24" t="n">
+        <v>2</v>
+      </c>
+      <c r="BP24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ24" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="BR24" t="n">
+        <v>2</v>
+      </c>
+      <c r="BS24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT24" t="n">
+        <v>18</v>
+      </c>
+      <c r="BU24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC24" t="n">
+        <v>8</v>
+      </c>
+      <c r="CD24" t="n">
+        <v>5</v>
+      </c>
+      <c r="CE24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ24" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK24" t="n">
+        <v>1</v>
+      </c>
+      <c r="CL24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT24" t="n">
+        <v>2</v>
+      </c>
+      <c r="CU24" t="n">
+        <v>9</v>
+      </c>
+      <c r="CV24" t="n">
         <v>6</v>
       </c>
-      <c r="AU24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY24" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ24" t="n">
-        <v>50</v>
-      </c>
-      <c r="BA24" t="n">
-        <v>22</v>
-      </c>
-      <c r="BB24" t="n">
-        <v>61.111111111111</v>
-      </c>
-      <c r="BC24" t="n">
-        <v>20</v>
-      </c>
-      <c r="BD24" t="n">
-        <v>62.5</v>
-      </c>
-      <c r="BE24" t="n">
-        <v>2</v>
-      </c>
-      <c r="BF24" t="n">
-        <v>50</v>
-      </c>
-      <c r="BG24" t="n">
-        <v>42</v>
-      </c>
-      <c r="BH24" t="n">
-        <v>7</v>
-      </c>
-      <c r="BI24" t="n">
-        <v>5</v>
-      </c>
-      <c r="BJ24" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK24" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL24" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM24" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN24" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO24" t="n">
-        <v>6</v>
-      </c>
-      <c r="BP24" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ24" t="n">
-        <v>39.5</v>
-      </c>
-      <c r="BR24" t="n">
-        <v>6</v>
-      </c>
-      <c r="BS24" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT24" t="n">
-        <v>21</v>
-      </c>
-      <c r="BU24" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV24" t="n">
-        <v>3</v>
-      </c>
-      <c r="BW24" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX24" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY24" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ24" t="n">
-        <v>5</v>
-      </c>
-      <c r="CA24" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB24" t="n">
-        <v>1</v>
-      </c>
-      <c r="CC24" t="n">
-        <v>5</v>
-      </c>
-      <c r="CD24" t="n">
-        <v>2</v>
-      </c>
-      <c r="CE24" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF24" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG24" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH24" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI24" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ24" t="n">
-        <v>6</v>
-      </c>
-      <c r="CK24" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL24" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM24" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN24" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO24" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP24" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ24" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR24" t="n">
+      <c r="CW24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ24" t="n">
+        <v>16</v>
+      </c>
+      <c r="DA24" t="n">
         <v>4</v>
       </c>
-      <c r="CS24" t="n">
-        <v>2</v>
-      </c>
-      <c r="CT24" t="n">
-        <v>10</v>
-      </c>
-      <c r="CU24" t="n">
-        <v>14</v>
-      </c>
-      <c r="CV24" t="n">
-        <v>2</v>
-      </c>
-      <c r="CW24" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX24" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY24" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ24" t="n">
-        <v>5</v>
-      </c>
-      <c r="DA24" t="n">
-        <v>10</v>
-      </c>
       <c r="DB24" t="n">
-        <v>71.428571428571</v>
+        <v>80</v>
       </c>
       <c r="DC24" t="n">
         <v>0</v>
@@ -9174,19 +9172,19 @@
         <v>0</v>
       </c>
       <c r="DF24" t="n">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="DG24" t="n">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="DH24" t="n">
         <v>0</v>
       </c>
       <c r="DI24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DJ24" t="n">
-        <v>2175694</v>
+        <v>2658635</v>
       </c>
       <c r="DK24" t="inlineStr">
         <is>
@@ -9208,23 +9206,23 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Andrias Edmundsson</t>
+          <t>Fallou Cham</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>906963</v>
+        <v>1945133</v>
       </c>
       <c r="E25" t="n">
-        <v>7.2</v>
+        <v>6.5833333333333</v>
       </c>
       <c r="F25" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H25" t="n">
-        <v>90</v>
+        <v>235</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -9232,15 +9230,17 @@
       <c r="J25" t="n">
         <v>0</v>
       </c>
-      <c r="K25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>0.3506</v>
+      </c>
       <c r="L25" t="n">
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -9279,52 +9279,52 @@
         <v>0</v>
       </c>
       <c r="AA25" t="n">
-        <v>0.0120183</v>
+        <v>0.09911876</v>
       </c>
       <c r="AB25" t="n">
-        <v>89</v>
+        <v>144</v>
       </c>
       <c r="AC25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD25" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AE25" t="n">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="AF25" t="n">
-        <v>78.461538461538</v>
+        <v>60.377358490566</v>
       </c>
       <c r="AG25" t="n">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="AH25" t="n">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="AI25" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AJ25" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AK25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AL25" t="n">
-        <v>41.666666666667</v>
+        <v>60</v>
       </c>
       <c r="AM25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN25" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AO25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AP25" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="AQ25" t="n">
         <v>0</v>
@@ -9333,16 +9333,16 @@
         <v>6</v>
       </c>
       <c r="AS25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AT25" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AU25" t="n">
         <v>0</v>
       </c>
       <c r="AV25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW25" t="n">
         <v>0</v>
@@ -9351,155 +9351,155 @@
         <v>0</v>
       </c>
       <c r="AY25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ25" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="BA25" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="BB25" t="n">
-        <v>58.823529411765</v>
+        <v>61.111111111111</v>
       </c>
       <c r="BC25" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="BD25" t="n">
-        <v>80</v>
+        <v>62.5</v>
       </c>
       <c r="BE25" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="BF25" t="n">
         <v>50</v>
       </c>
       <c r="BG25" t="n">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="BH25" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="BI25" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ25" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO25" t="n">
+        <v>6</v>
+      </c>
+      <c r="BP25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ25" t="n">
+        <v>39.5</v>
+      </c>
+      <c r="BR25" t="n">
+        <v>6</v>
+      </c>
+      <c r="BS25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT25" t="n">
+        <v>21</v>
+      </c>
+      <c r="BU25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV25" t="n">
+        <v>3</v>
+      </c>
+      <c r="BW25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ25" t="n">
+        <v>5</v>
+      </c>
+      <c r="CA25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB25" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC25" t="n">
+        <v>5</v>
+      </c>
+      <c r="CD25" t="n">
         <v>2</v>
       </c>
-      <c r="BJ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN25" t="n">
-        <v>1</v>
-      </c>
-      <c r="BO25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ25" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="BR25" t="n">
-        <v>1</v>
-      </c>
-      <c r="BS25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT25" t="n">
+      <c r="CE25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ25" t="n">
+        <v>6</v>
+      </c>
+      <c r="CK25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR25" t="n">
+        <v>4</v>
+      </c>
+      <c r="CS25" t="n">
+        <v>2</v>
+      </c>
+      <c r="CT25" t="n">
+        <v>10</v>
+      </c>
+      <c r="CU25" t="n">
         <v>14</v>
       </c>
-      <c r="BU25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC25" t="n">
-        <v>6</v>
-      </c>
-      <c r="CD25" t="n">
-        <v>4</v>
-      </c>
-      <c r="CE25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CS25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CT25" t="n">
+      <c r="CV25" t="n">
         <v>2</v>
       </c>
-      <c r="CU25" t="n">
-        <v>7</v>
-      </c>
-      <c r="CV25" t="n">
-        <v>6</v>
-      </c>
       <c r="CW25" t="n">
         <v>0</v>
       </c>
@@ -9510,13 +9510,13 @@
         <v>0</v>
       </c>
       <c r="CZ25" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="DA25" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="DB25" t="n">
-        <v>100</v>
+        <v>71.428571428571</v>
       </c>
       <c r="DC25" t="n">
         <v>0</v>
@@ -9528,19 +9528,19 @@
         <v>0</v>
       </c>
       <c r="DF25" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="DG25" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="DH25" t="n">
         <v>0</v>
       </c>
       <c r="DI25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DJ25" t="n">
-        <v>2658635</v>
+        <v>2175694</v>
       </c>
       <c r="DK25" t="inlineStr">
         <is>
@@ -9925,16 +9925,16 @@
         <v>253391</v>
       </c>
       <c r="E27" t="n">
-        <v>6.5571428571429</v>
+        <v>6.5545454545455</v>
       </c>
       <c r="F27" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G27" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H27" t="n">
-        <v>1890</v>
+        <v>1980</v>
       </c>
       <c r="I27" t="n">
         <v>1</v>
@@ -9989,10 +9989,10 @@
         <v>0</v>
       </c>
       <c r="AA27" t="n">
-        <v>0.05183354</v>
+        <v>0.05421507</v>
       </c>
       <c r="AB27" t="n">
-        <v>734</v>
+        <v>778</v>
       </c>
       <c r="AC27" t="n">
         <v>1</v>
@@ -10001,28 +10001,28 @@
         <v>2</v>
       </c>
       <c r="AE27" t="n">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="AF27" t="n">
-        <v>43.893805309735</v>
+        <v>43.478260869565</v>
       </c>
       <c r="AG27" t="n">
-        <v>565</v>
+        <v>598</v>
       </c>
       <c r="AH27" t="n">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="AI27" t="n">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="AJ27" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AK27" t="n">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="AL27" t="n">
-        <v>30.684326710817</v>
+        <v>30.785123966942</v>
       </c>
       <c r="AM27" t="n">
         <v>0</v>
@@ -10040,13 +10040,13 @@
         <v>0</v>
       </c>
       <c r="AR27" t="n">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="AS27" t="n">
         <v>0</v>
       </c>
       <c r="AT27" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AU27" t="n">
         <v>0</v>
@@ -10085,7 +10085,7 @@
         <v>100</v>
       </c>
       <c r="BG27" t="n">
-        <v>319</v>
+        <v>340</v>
       </c>
       <c r="BH27" t="n">
         <v>0</v>
@@ -10103,55 +10103,55 @@
         <v>0</v>
       </c>
       <c r="BM27" t="n">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="BN27" t="n">
         <v>4</v>
       </c>
       <c r="BO27" t="n">
+        <v>36</v>
+      </c>
+      <c r="BP27" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ27" t="n">
+        <v>144.2</v>
+      </c>
+      <c r="BR27" t="n">
+        <v>22</v>
+      </c>
+      <c r="BS27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT27" t="n">
+        <v>338</v>
+      </c>
+      <c r="BU27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC27" t="n">
         <v>34</v>
-      </c>
-      <c r="BP27" t="n">
-        <v>1</v>
-      </c>
-      <c r="BQ27" t="n">
-        <v>137.7</v>
-      </c>
-      <c r="BR27" t="n">
-        <v>21</v>
-      </c>
-      <c r="BS27" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT27" t="n">
-        <v>317</v>
-      </c>
-      <c r="BU27" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV27" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW27" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX27" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY27" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ27" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA27" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB27" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC27" t="n">
-        <v>33</v>
       </c>
       <c r="CD27" t="n">
         <v>15</v>
@@ -10166,28 +10166,28 @@
         <v>3</v>
       </c>
       <c r="CH27" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="CI27" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="CJ27" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="CK27" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CL27" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="CM27" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="CN27" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="CO27" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="CP27" t="n">
         <v>3</v>
@@ -10220,7 +10220,7 @@
         <v>0</v>
       </c>
       <c r="CZ27" t="n">
-        <v>453</v>
+        <v>484</v>
       </c>
       <c r="DA27" t="n">
         <v>0</v>
@@ -10235,16 +10235,16 @@
         <v>0</v>
       </c>
       <c r="DE27" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="DF27" t="n">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="DG27" t="n">
-        <v>397</v>
+        <v>426</v>
       </c>
       <c r="DH27" t="n">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="DI27" t="n">
         <v>0</v>
@@ -10258,7 +10258,7 @@
         </is>
       </c>
       <c r="DL27" t="n">
-        <v>-6.9568</v>
+        <v>-7.4995</v>
       </c>
     </row>
     <row r="28">
